--- a/results/mnist_training/results_lwf_mnist.xlsx
+++ b/results/mnist_training/results_lwf_mnist.xlsx
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8332047170400619</v>
+        <v>0.8674478711684545</v>
       </c>
       <c r="D3">
-        <v>0.3379385769367218</v>
+        <v>0.2909870147705078</v>
       </c>
       <c r="E3">
-        <v>50.72999572753906</v>
+        <v>50.685</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.1823633046627045</v>
+        <v>0.1911576806545258</v>
       </c>
       <c r="J3">
-        <v>94.64999389648438</v>
+        <v>94.61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3418054747581482</v>
+        <v>0.3776284622649352</v>
       </c>
       <c r="D4">
-        <v>0.283972442150116</v>
+        <v>0.2553848922252655</v>
       </c>
       <c r="E4">
-        <v>50.91999816894531</v>
+        <v>50.99</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>4.245219396972656</v>
+        <v>4.077953967285156</v>
       </c>
       <c r="J4">
-        <v>6.809999942779541</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2707525451481342</v>
+        <v>0.3085770616432031</v>
       </c>
       <c r="D5">
-        <v>0.2939158380031586</v>
+        <v>0.2329776585102081</v>
       </c>
       <c r="E5">
-        <v>51.53499984741211</v>
+        <v>50.875</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.111447701895237</v>
+        <v>0.1217289067029953</v>
       </c>
       <c r="J5">
-        <v>96.55999755859375</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2363102871179581</v>
+        <v>0.2684605415165424</v>
       </c>
       <c r="D6">
-        <v>0.2843582630157471</v>
+        <v>0.2411745637655258</v>
       </c>
       <c r="E6">
-        <v>50.64499664306641</v>
+        <v>51.17</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>4.674622222900391</v>
+        <v>4.360145465087891</v>
       </c>
       <c r="J6">
-        <v>5.279999732971191</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.2123468950887521</v>
+        <v>0.2424876149992148</v>
       </c>
       <c r="D7">
-        <v>0.2530498504638672</v>
+        <v>0.2474632114171982</v>
       </c>
       <c r="E7">
-        <v>51.70000076293945</v>
+        <v>51.38</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.09222554741501808</v>
+        <v>0.09875659572482109</v>
       </c>
       <c r="J7">
-        <v>97.19999694824219</v>
+        <v>96.84999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1958985725293557</v>
+        <v>0.2203376766790946</v>
       </c>
       <c r="D8">
-        <v>0.2619843780994415</v>
+        <v>0.2706914842128754</v>
       </c>
       <c r="E8">
-        <v>51.90000152587891</v>
+        <v>51.2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>4.688171740722656</v>
+        <v>4.008911694335938</v>
       </c>
       <c r="J8">
-        <v>5.869999885559082</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1829584153244893</v>
+        <v>0.2079900923122962</v>
       </c>
       <c r="D9">
-        <v>0.2404289096593857</v>
+        <v>0.2311308979988098</v>
       </c>
       <c r="E9">
-        <v>52.04999542236328</v>
+        <v>51.6</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.07973987057805061</v>
+        <v>0.08368456286489964</v>
       </c>
       <c r="J9">
-        <v>97.44999694824219</v>
+        <v>97.41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.173920843253533</v>
+        <v>0.193122611840566</v>
       </c>
       <c r="D10">
-        <v>0.284318596124649</v>
+        <v>0.2661543190479279</v>
       </c>
       <c r="E10">
-        <v>52.11999893188477</v>
+        <v>51.545</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>4.238527081298828</v>
+        <v>3.986881011962891</v>
       </c>
       <c r="J10">
-        <v>3.839999914169312</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1644983996699254</v>
+        <v>0.1897678375492493</v>
       </c>
       <c r="D11">
-        <v>0.2775285840034485</v>
+        <v>0.2502948641777039</v>
       </c>
       <c r="E11">
-        <v>52.48999786376953</v>
+        <v>51.43</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.07359511762559413</v>
+        <v>0.07313228635340929</v>
       </c>
       <c r="J11">
-        <v>97.79000091552734</v>
+        <v>97.72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.1585049271335204</v>
+        <v>0.1768746054917574</v>
       </c>
       <c r="D12">
-        <v>0.2490412592887878</v>
+        <v>0.2725755870342255</v>
       </c>
       <c r="E12">
-        <v>51.93500137329102</v>
+        <v>51.925</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>4.410812121582032</v>
+        <v>4.296490734863281</v>
       </c>
       <c r="J12">
-        <v>5.609999656677246</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1491821253423889</v>
+        <v>0.1698268011212349</v>
       </c>
       <c r="D13">
-        <v>0.2563332915306091</v>
+        <v>0.234078973531723</v>
       </c>
       <c r="E13">
-        <v>52.44499969482422</v>
+        <v>51.785</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.06572698068618775</v>
+        <v>0.06957540721595287</v>
       </c>
       <c r="J13">
-        <v>98.04000091552734</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1455699772263567</v>
+        <v>0.1659426672632495</v>
       </c>
       <c r="D14">
-        <v>0.2584293186664581</v>
+        <v>0.2576763927936554</v>
       </c>
       <c r="E14">
-        <v>52.41500091552734</v>
+        <v>52.55</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>4.760019696044922</v>
+        <v>4.45849829711914</v>
       </c>
       <c r="J14">
-        <v>5.759999752044678</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.1718735205630461</v>
+        <v>0.1924534131586552</v>
       </c>
       <c r="D15">
-        <v>0.2652308940887451</v>
+        <v>0.2537176609039307</v>
       </c>
       <c r="E15">
-        <v>51.82999801635742</v>
+        <v>51.545</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.0616251969486475</v>
+        <v>0.06610395278185606</v>
       </c>
       <c r="J15">
-        <v>98.00999450683594</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1612354144702355</v>
+        <v>0.1814699828873078</v>
       </c>
       <c r="D16">
-        <v>0.2660712897777557</v>
+        <v>0.256465345621109</v>
       </c>
       <c r="E16">
-        <v>51.96500015258789</v>
+        <v>51.52500000000001</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>4.520112109375</v>
+        <v>4.348846527099609</v>
       </c>
       <c r="J16">
-        <v>6.089999675750732</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.1550250744943817</v>
+        <v>0.1802855563908815</v>
       </c>
       <c r="D17">
-        <v>0.2745263576507568</v>
+        <v>0.2599884271621704</v>
       </c>
       <c r="E17">
-        <v>52.08499908447266</v>
+        <v>51.48</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.05671232181116938</v>
+        <v>0.05845169010907412</v>
       </c>
       <c r="J17">
-        <v>98.20999908447266</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.154738361996909</v>
+        <v>0.1764602116495371</v>
       </c>
       <c r="D18">
-        <v>0.2672465741634369</v>
+        <v>0.2597598433494568</v>
       </c>
       <c r="E18">
-        <v>51.96499633789062</v>
+        <v>51.51000000000001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>4.652131195068359</v>
+        <v>4.461467840576172</v>
       </c>
       <c r="J18">
-        <v>6.029999732971191</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1510305258755883</v>
+        <v>0.1766304209828377</v>
       </c>
       <c r="D19">
-        <v>0.2670590579509735</v>
+        <v>0.2474939674139023</v>
       </c>
       <c r="E19">
-        <v>52.20000076293945</v>
+        <v>51.52</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.05429016102142632</v>
+        <v>0.05627890484705567</v>
       </c>
       <c r="J19">
-        <v>98.33999633789062</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1716492958118518</v>
+        <v>0.1929883974542221</v>
       </c>
       <c r="D20">
-        <v>0.2548636198043823</v>
+        <v>0.2501734495162964</v>
       </c>
       <c r="E20">
-        <v>51.875</v>
+        <v>51.4</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>4.622619134521484</v>
+        <v>4.494469152832031</v>
       </c>
       <c r="J20">
-        <v>6.639999866485596</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1659102345009645</v>
+        <v>0.189501693919301</v>
       </c>
       <c r="D21">
-        <v>0.2592458724975586</v>
+        <v>0.2513752281665802</v>
       </c>
       <c r="E21">
-        <v>51.82500076293945</v>
+        <v>51.375</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.05075525559075177</v>
+        <v>0.05346462912857532</v>
       </c>
       <c r="J21">
-        <v>98.31999969482422</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1636178101350864</v>
+        <v>0.1832917684564988</v>
       </c>
       <c r="D22">
-        <v>0.2615703344345093</v>
+        <v>0.2513587772846222</v>
       </c>
       <c r="E22">
-        <v>51.8650016784668</v>
+        <v>51.41</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>4.905154541015625</v>
+        <v>4.584820989990234</v>
       </c>
       <c r="J22">
-        <v>5.549999713897705</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.161134962712725</v>
+        <v>0.1846270716190338</v>
       </c>
       <c r="D23">
-        <v>0.2591229379177094</v>
+        <v>0.2513240873813629</v>
       </c>
       <c r="E23">
-        <v>51.89500045776367</v>
+        <v>51.39</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.04702025003172457</v>
+        <v>0.05105441759489477</v>
       </c>
       <c r="J23">
-        <v>98.45999908447266</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1626864812647303</v>
+        <v>0.1805151547491551</v>
       </c>
       <c r="D24">
-        <v>0.2596590220928192</v>
+        <v>0.2515610754489899</v>
       </c>
       <c r="E24">
-        <v>51.90499877929688</v>
+        <v>51.31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>4.788287310791016</v>
+        <v>4.596201434326172</v>
       </c>
       <c r="J24">
-        <v>6.429999828338623</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1733903730412324</v>
+        <v>0.1993455338478088</v>
       </c>
       <c r="D25">
-        <v>0.2450524121522903</v>
+        <v>0.2382182329893112</v>
       </c>
       <c r="E25">
-        <v>51.92999649047852</v>
+        <v>51.47</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.04456115502025932</v>
+        <v>0.05107494339458644</v>
       </c>
       <c r="J25">
-        <v>98.56999969482422</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1721954489996036</v>
+        <v>0.1973315194994211</v>
       </c>
       <c r="D26">
-        <v>0.249341294169426</v>
+        <v>0.2433797717094421</v>
       </c>
       <c r="E26">
-        <v>51.93000030517578</v>
+        <v>51.4</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>4.993441760253906</v>
+        <v>4.64740849609375</v>
       </c>
       <c r="J26">
-        <v>6.259999752044678</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1683493475988507</v>
+        <v>0.1922240128616492</v>
       </c>
       <c r="D27">
-        <v>0.2523280084133148</v>
+        <v>0.2474916577339172</v>
       </c>
       <c r="E27">
-        <v>51.93000030517578</v>
+        <v>51.37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.05814298309758305</v>
+        <v>0.05937517205625772</v>
       </c>
       <c r="J27">
-        <v>98.22999572753906</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1703092190126578</v>
+        <v>0.1895354410757621</v>
       </c>
       <c r="D28">
-        <v>0.2535323202610016</v>
+        <v>0.2488427311182022</v>
       </c>
       <c r="E28">
-        <v>51.86499786376953</v>
+        <v>51.365</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>4.693740979003906</v>
+        <v>4.288715057373047</v>
       </c>
       <c r="J28">
-        <v>5.429999828338623</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.1702910771220922</v>
+        <v>0.1909535852074623</v>
       </c>
       <c r="D29">
-        <v>0.2543736696243286</v>
+        <v>0.2506677806377411</v>
       </c>
       <c r="E29">
-        <v>51.81000137329102</v>
+        <v>51.34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.05593104850351811</v>
+        <v>0.05784964554086328</v>
       </c>
       <c r="J29">
-        <v>98.20999908447266</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1776980029791594</v>
+        <v>0.2061454158773025</v>
       </c>
       <c r="D30">
-        <v>0.2414563000202179</v>
+        <v>0.2327038049697876</v>
       </c>
       <c r="E30">
-        <v>52.02999877929688</v>
+        <v>51.59</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,10 +1262,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>4.759913946533203</v>
+        <v>4.372319921875</v>
       </c>
       <c r="J30">
-        <v>5.71999979019165</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1755960707863172</v>
+        <v>0.1989848770449559</v>
       </c>
       <c r="D31">
-        <v>0.2426062524318695</v>
+        <v>0.2343226820230484</v>
       </c>
       <c r="E31">
-        <v>51.9949951171875</v>
+        <v>51.56999999999999</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.05483801353089511</v>
+        <v>0.0577545772947371</v>
       </c>
       <c r="J31">
-        <v>98.29000091552734</v>
+        <v>98.23</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1769287865360578</v>
+        <v>0.1990143314003944</v>
       </c>
       <c r="D32">
-        <v>0.2435436397790909</v>
+        <v>0.2356988787651062</v>
       </c>
       <c r="E32">
-        <v>51.95499801635742</v>
+        <v>51.465</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>4.693265765380859</v>
+        <v>4.3912994140625</v>
       </c>
       <c r="J32">
-        <v>5.87999963760376</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.1741956328600645</v>
+        <v>0.199363999987642</v>
       </c>
       <c r="D33">
-        <v>0.2444229573011398</v>
+        <v>0.237016350030899</v>
       </c>
       <c r="E33">
-        <v>51.95999908447266</v>
+        <v>51.505</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.05290571664571762</v>
+        <v>0.05585102915242314</v>
       </c>
       <c r="J33">
-        <v>98.33999633789062</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1738260436058044</v>
+        <v>0.1970587931573391</v>
       </c>
       <c r="D34">
-        <v>0.2452526986598969</v>
+        <v>0.238171860575676</v>
       </c>
       <c r="E34">
-        <v>51.93999862670898</v>
+        <v>51.47</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>4.706735729980469</v>
+        <v>4.245819342041016</v>
       </c>
       <c r="J34">
-        <v>5.589999675750732</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1392,10 +1392,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.05263602048829198</v>
+        <v>0.05655881057158112</v>
       </c>
       <c r="J35">
-        <v>98.36000061035156</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1406,10 +1406,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>4.820832635498047</v>
+        <v>4.277689764404297</v>
       </c>
       <c r="J36">
-        <v>6.039999961853027</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1420,10 +1420,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.05827251278758049</v>
+        <v>0.060337976744771</v>
       </c>
       <c r="J37">
-        <v>98.19999694824219</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1434,10 +1434,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>4.624890423583985</v>
+        <v>4.228703228759765</v>
       </c>
       <c r="J38">
-        <v>5.549999713897705</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1448,10 +1448,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.05771003434062004</v>
+        <v>0.05969581072703004</v>
       </c>
       <c r="J39">
-        <v>98.22000122070312</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1462,10 +1462,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>4.676482946777344</v>
+        <v>4.24927158203125</v>
       </c>
       <c r="J40">
-        <v>5.429999828338623</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1476,10 +1476,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.05747260179668665</v>
+        <v>0.05955183346122504</v>
       </c>
       <c r="J41">
-        <v>98.25</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1490,10 +1490,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>4.688153991699219</v>
+        <v>4.345142877197266</v>
       </c>
       <c r="J42">
-        <v>5.480000019073486</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1504,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.05694701623916626</v>
+        <v>0.05908882017582655</v>
       </c>
       <c r="J43">
-        <v>98.25</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1518,10 +1518,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>4.679842321777344</v>
+        <v>4.37345952758789</v>
       </c>
       <c r="J44">
-        <v>5.539999961853027</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1532,10 +1532,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.05654785503894091</v>
+        <v>0.05904451003596187</v>
       </c>
       <c r="J45">
-        <v>98.29000091552734</v>
+        <v>98.18000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1546,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>4.693117193603515</v>
+        <v>4.382733099365234</v>
       </c>
       <c r="J46">
-        <v>5.519999980926514</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1560,10 +1560,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.05948170835599303</v>
+        <v>0.06310721294879913</v>
       </c>
       <c r="J47">
-        <v>98.08999633789062</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1574,10 +1574,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>4.572193103027343</v>
+        <v>4.277471740722656</v>
       </c>
       <c r="J48">
-        <v>5.769999980926514</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -1588,10 +1588,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.05880099849253893</v>
+        <v>0.06174044151902199</v>
       </c>
       <c r="J49">
-        <v>98.13999938964844</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1602,10 +1602,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>4.595125531005859</v>
+        <v>4.254461938476562</v>
       </c>
       <c r="J50">
-        <v>5.71999979019165</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1616,10 +1616,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.05861263875290752</v>
+        <v>0.06115612231418491</v>
       </c>
       <c r="J51">
-        <v>98.18000030517578</v>
+        <v>98.15000000000001</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1630,10 +1630,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>4.617232659912109</v>
+        <v>4.246226184082031</v>
       </c>
       <c r="J52">
-        <v>5.679999828338623</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1644,10 +1644,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.05852241071164608</v>
+        <v>0.06076654832735658</v>
       </c>
       <c r="J53">
-        <v>98.15999603271484</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1658,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>4.626610430908203</v>
+        <v>4.252750244140625</v>
       </c>
       <c r="J54">
-        <v>5.569999694824219</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -1672,10 +1672,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.05843110055327416</v>
+        <v>0.06054086979702115</v>
       </c>
       <c r="J55">
-        <v>98.13999938964844</v>
+        <v>98.13</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1686,10 +1686,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>4.63905146484375</v>
+        <v>4.26073515625</v>
       </c>
       <c r="J56">
-        <v>5.480000019073486</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -1700,10 +1700,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.06097093494832516</v>
+        <v>0.06524919282048941</v>
       </c>
       <c r="J57">
-        <v>98.04000091552734</v>
+        <v>98.03</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1714,10 +1714,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>4.535082885742187</v>
+        <v>4.328433837890625</v>
       </c>
       <c r="J58">
-        <v>6.019999980926514</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -1728,10 +1728,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.06049757358133793</v>
+        <v>0.06453301232755185</v>
       </c>
       <c r="J59">
-        <v>98.07999420166016</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1742,10 +1742,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>4.543333251953125</v>
+        <v>4.314870611572266</v>
       </c>
       <c r="J60">
-        <v>5.909999847412109</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -1756,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.06011751403957605</v>
+        <v>0.06390744268000126</v>
       </c>
       <c r="J61">
-        <v>98.07999420166016</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1770,10 +1770,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>4.553258612060547</v>
+        <v>4.30082373046875</v>
       </c>
       <c r="J62">
-        <v>5.829999923706055</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -1784,10 +1784,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.05978682924583555</v>
+        <v>0.06341304572075605</v>
       </c>
       <c r="J63">
-        <v>98.1199951171875</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1798,10 +1798,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>4.56164946899414</v>
+        <v>4.288629772949219</v>
       </c>
       <c r="J64">
-        <v>5.799999713897705</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -1812,10 +1812,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.05954639051631093</v>
+        <v>0.06302683564126492</v>
       </c>
       <c r="J65">
-        <v>98.11000061035156</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1826,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>4.569340637207032</v>
+        <v>4.279151104736328</v>
       </c>
       <c r="J66">
-        <v>5.769999980926514</v>
+        <v>4.82</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1902,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.667265667120616</v>
+        <v>2.388375844160716</v>
       </c>
       <c r="D3">
-        <v>1.945436716079712</v>
+        <v>1.754678010940552</v>
       </c>
       <c r="E3">
-        <v>72.09500122070312</v>
+        <v>66.36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.6847668487548828</v>
+        <v>0.7918690940856934</v>
       </c>
       <c r="J3">
-        <v>84.93000030517578</v>
+        <v>74.66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1931,13 +1931,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.074636075894038</v>
+        <v>2.040512205759684</v>
       </c>
       <c r="D4">
-        <v>1.730556130409241</v>
+        <v>1.659588694572449</v>
       </c>
       <c r="E4">
-        <v>66.21499633789062</v>
+        <v>66.405</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.359486726379395</v>
+        <v>1.328987680053711</v>
       </c>
       <c r="J4">
-        <v>59.2599983215332</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1960,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.979840579430262</v>
+        <v>1.968152422904968</v>
       </c>
       <c r="D5">
-        <v>1.676143288612366</v>
+        <v>1.63848865032196</v>
       </c>
       <c r="E5">
-        <v>64.47499847412109</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.7847138427734375</v>
+        <v>1.018904011535644</v>
       </c>
       <c r="J5">
-        <v>76.84999847412109</v>
+        <v>69.36</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1989,13 +1989,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.928348429997762</v>
+        <v>1.922548921902975</v>
       </c>
       <c r="D6">
-        <v>1.641393184661865</v>
+        <v>1.628043174743652</v>
       </c>
       <c r="E6">
-        <v>66.20500183105469</v>
+        <v>65.83</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2004,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1.235619442749023</v>
+        <v>1.235119026184082</v>
       </c>
       <c r="J6">
-        <v>55.57999801635742</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2018,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.899694215854009</v>
+        <v>1.897520190477371</v>
       </c>
       <c r="D7">
-        <v>1.621611595153809</v>
+        <v>1.603186249732971</v>
       </c>
       <c r="E7">
-        <v>66.33999633789062</v>
+        <v>66.095</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2033,10 +2033,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.9112788841247559</v>
+        <v>1.029691514587402</v>
       </c>
       <c r="J7">
-        <v>73.04000091552734</v>
+        <v>70.63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2047,13 +2047,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.880674821933111</v>
+        <v>1.875756069421768</v>
       </c>
       <c r="D8">
-        <v>1.603828191757202</v>
+        <v>1.593248248100281</v>
       </c>
       <c r="E8">
-        <v>64.84999847412109</v>
+        <v>64.34</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>1.214256158447266</v>
+        <v>1.203873135375977</v>
       </c>
       <c r="J8">
-        <v>55.90999984741211</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2076,13 +2076,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.862548190752665</v>
+        <v>1.856416475375493</v>
       </c>
       <c r="D9">
-        <v>1.591655969619751</v>
+        <v>1.585167646408081</v>
       </c>
       <c r="E9">
-        <v>64.76499938964844</v>
+        <v>64.69499999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.9975305786132812</v>
+        <v>1.127400268554688</v>
       </c>
       <c r="J9">
-        <v>69.84999847412109</v>
+        <v>64.67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2105,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.849543625116348</v>
+        <v>1.845873444477717</v>
       </c>
       <c r="D10">
-        <v>1.576560378074646</v>
+        <v>1.566318869590759</v>
       </c>
       <c r="E10">
-        <v>64.52500152587891</v>
+        <v>63.92</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2120,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>1.163229127502441</v>
+        <v>1.179822102355957</v>
       </c>
       <c r="J10">
-        <v>62.55999755859375</v>
+        <v>66.98999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2134,13 +2134,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.842156473398209</v>
+        <v>1.83446931997935</v>
       </c>
       <c r="D11">
-        <v>1.578676581382751</v>
+        <v>1.568082094192505</v>
       </c>
       <c r="E11">
-        <v>64.77499389648438</v>
+        <v>63.815</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2149,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>1.041440934753418</v>
+        <v>1.208343241882324</v>
       </c>
       <c r="J11">
-        <v>68.29000091552734</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2163,13 +2163,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.833932647705078</v>
+        <v>1.826340150038401</v>
       </c>
       <c r="D12">
-        <v>1.579604625701904</v>
+        <v>1.557996988296509</v>
       </c>
       <c r="E12">
-        <v>62.85499572753906</v>
+        <v>63.05499999999999</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2178,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>1.152135537719727</v>
+        <v>1.14322572479248</v>
       </c>
       <c r="J12">
-        <v>64.38999938964844</v>
+        <v>70.44</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2192,13 +2192,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.824787633816401</v>
+        <v>1.817464185555776</v>
       </c>
       <c r="D13">
-        <v>1.559056758880615</v>
+        <v>1.549979090690613</v>
       </c>
       <c r="E13">
-        <v>61.72499847412109</v>
+        <v>63.09</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>1.134898442077637</v>
+        <v>1.32018438873291</v>
       </c>
       <c r="J13">
-        <v>65.33999633789062</v>
+        <v>56.55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2221,13 +2221,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.821692577203115</v>
+        <v>1.813733952442805</v>
       </c>
       <c r="D14">
-        <v>1.563689470291138</v>
+        <v>1.543941855430603</v>
       </c>
       <c r="E14">
-        <v>62.95499801635742</v>
+        <v>60.405</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>1.145172583007813</v>
+        <v>1.117851805114746</v>
       </c>
       <c r="J14">
-        <v>64.36000061035156</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2250,13 +2250,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.814090944925944</v>
+        <v>1.807953378756841</v>
       </c>
       <c r="D15">
-        <v>1.564794778823853</v>
+        <v>1.529085874557495</v>
       </c>
       <c r="E15">
-        <v>62.34999847412109</v>
+        <v>62.015</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>1.132661848449707</v>
+        <v>1.30038869934082</v>
       </c>
       <c r="J15">
-        <v>63.47999954223633</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2279,13 +2279,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.80967135310173</v>
+        <v>1.802789065440496</v>
       </c>
       <c r="D16">
-        <v>1.567716002464294</v>
+        <v>1.538909077644348</v>
       </c>
       <c r="E16">
-        <v>63.93499755859375</v>
+        <v>61.36</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2294,10 +2294,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>1.11456039276123</v>
+        <v>1.112729203796387</v>
       </c>
       <c r="J16">
-        <v>66.04999542236328</v>
+        <v>73.27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2308,13 +2308,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.804403580029805</v>
+        <v>1.797158786058426</v>
       </c>
       <c r="D17">
-        <v>1.558671474456787</v>
+        <v>1.528217077255249</v>
       </c>
       <c r="E17">
-        <v>61.9949951171875</v>
+        <v>60.5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>1.170843702697754</v>
+        <v>1.363665653991699</v>
       </c>
       <c r="J17">
-        <v>60.57999801635742</v>
+        <v>54.37</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2337,13 +2337,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.799216320912043</v>
+        <v>1.794296028614044</v>
       </c>
       <c r="D18">
-        <v>1.558748126029968</v>
+        <v>1.533427476882935</v>
       </c>
       <c r="E18">
-        <v>60.94999694824219</v>
+        <v>60.455</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2352,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>1.101453367614746</v>
+        <v>1.093944241333008</v>
       </c>
       <c r="J18">
-        <v>68.47000122070312</v>
+        <v>73.47</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2366,13 +2366,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.797065229415894</v>
+        <v>1.788862806161245</v>
       </c>
       <c r="D19">
-        <v>1.541444420814514</v>
+        <v>1.527389645576477</v>
       </c>
       <c r="E19">
-        <v>61.66500091552734</v>
+        <v>63.025</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>1.197874607849121</v>
+        <v>1.382963348388672</v>
       </c>
       <c r="J19">
-        <v>60.30999755859375</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2395,13 +2395,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.795433004697164</v>
+        <v>1.786845591465632</v>
       </c>
       <c r="D20">
-        <v>1.541081786155701</v>
+        <v>1.52259361743927</v>
       </c>
       <c r="E20">
-        <v>63.59999847412109</v>
+        <v>59.87</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2410,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>1.103947476196289</v>
+        <v>1.110731214904785</v>
       </c>
       <c r="J20">
-        <v>69.23999786376953</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2424,13 +2424,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.790743400653203</v>
+        <v>1.785408668915431</v>
       </c>
       <c r="D21">
-        <v>1.544680118560791</v>
+        <v>1.51164186000824</v>
       </c>
       <c r="E21">
-        <v>59.95500183105469</v>
+        <v>60.4</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.237011744689941</v>
+        <v>1.421644650268555</v>
       </c>
       <c r="J21">
-        <v>56.93999862670898</v>
+        <v>49.48</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2453,13 +2453,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.789027134974797</v>
+        <v>1.783927443424861</v>
       </c>
       <c r="D22">
-        <v>1.538399934768677</v>
+        <v>1.527119874954224</v>
       </c>
       <c r="E22">
-        <v>62.31499481201172</v>
+        <v>60.765</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2468,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>1.092147914123535</v>
+        <v>1.068175448608399</v>
       </c>
       <c r="J22">
-        <v>68.76999664306641</v>
+        <v>76.63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2482,13 +2482,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.784704227050145</v>
+        <v>1.781978764136632</v>
       </c>
       <c r="D23">
-        <v>1.537701606750488</v>
+        <v>1.514189720153809</v>
       </c>
       <c r="E23">
-        <v>61.17499542236328</v>
+        <v>58.96000000000001</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>1.274278639221191</v>
+        <v>1.402031008911133</v>
       </c>
       <c r="J23">
-        <v>53.52999877929688</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2511,13 +2511,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.786021801630656</v>
+        <v>1.778327255249023</v>
       </c>
       <c r="D24">
-        <v>1.552129745483398</v>
+        <v>1.505242824554443</v>
       </c>
       <c r="E24">
-        <v>61.1199951171875</v>
+        <v>60.73</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2526,10 +2526,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.072797267150879</v>
+        <v>1.075127886962891</v>
       </c>
       <c r="J24">
-        <v>69.91999816894531</v>
+        <v>75.65000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2540,13 +2540,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.782204353809357</v>
+        <v>1.775976402759552</v>
       </c>
       <c r="D25">
-        <v>1.536103844642639</v>
+        <v>1.501649975776672</v>
       </c>
       <c r="E25">
-        <v>60.65999984741211</v>
+        <v>61.40000000000001</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>1.262474656677246</v>
+        <v>1.472339814758301</v>
       </c>
       <c r="J25">
-        <v>56.5</v>
+        <v>44.91</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2569,13 +2569,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.780787793397903</v>
+        <v>1.774999911387761</v>
       </c>
       <c r="D26">
-        <v>1.536296844482422</v>
+        <v>1.49736213684082</v>
       </c>
       <c r="E26">
-        <v>61.40499877929688</v>
+        <v>60.51</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>1.082024238586426</v>
+        <v>1.071226210021973</v>
       </c>
       <c r="J26">
-        <v>69.40999603271484</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2598,13 +2598,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.777579427162806</v>
+        <v>1.773766350746155</v>
       </c>
       <c r="D27">
-        <v>1.535487174987793</v>
+        <v>1.492090463638306</v>
       </c>
       <c r="E27">
-        <v>61.93999481201172</v>
+        <v>59.66</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.271485984802246</v>
+        <v>1.466321948242187</v>
       </c>
       <c r="J27">
-        <v>54.80999755859375</v>
+        <v>46.52</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2627,13 +2627,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.77912526567777</v>
+        <v>1.772026754220327</v>
       </c>
       <c r="D28">
-        <v>1.54374635219574</v>
+        <v>1.494962215423584</v>
       </c>
       <c r="E28">
-        <v>61.90000152587891</v>
+        <v>59.005</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2642,10 +2642,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>1.067332052612305</v>
+        <v>1.054509083557129</v>
       </c>
       <c r="J28">
-        <v>69.88999938964844</v>
+        <v>77.51000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2656,13 +2656,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.774067440032959</v>
+        <v>1.771671940485636</v>
       </c>
       <c r="D29">
-        <v>1.537892580032349</v>
+        <v>1.498469352722168</v>
       </c>
       <c r="E29">
-        <v>60.93000030517578</v>
+        <v>60.45</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>1.283050526428223</v>
+        <v>1.460333547973633</v>
       </c>
       <c r="J29">
-        <v>54.62999725341797</v>
+        <v>45.32</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2685,13 +2685,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.773886142174403</v>
+        <v>1.766999224026998</v>
       </c>
       <c r="D30">
-        <v>1.538953542709351</v>
+        <v>1.493626117706299</v>
       </c>
       <c r="E30">
-        <v>59.74500274658203</v>
+        <v>59.245</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2700,10 +2700,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>1.049968075561523</v>
+        <v>1.051189179992676</v>
       </c>
       <c r="J30">
-        <v>73.23999786376953</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2714,13 +2714,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.771557315985362</v>
+        <v>1.767474474906921</v>
       </c>
       <c r="D31">
-        <v>1.522973775863647</v>
+        <v>1.494468688964844</v>
       </c>
       <c r="E31">
-        <v>60.97499847412109</v>
+        <v>61.46</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.320332870483399</v>
+        <v>1.451605743408203</v>
       </c>
       <c r="J31">
-        <v>50.71999740600586</v>
+        <v>43.43</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2743,13 +2743,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.772600476741791</v>
+        <v>1.76490992863973</v>
       </c>
       <c r="D32">
-        <v>1.526842594146729</v>
+        <v>1.496551036834717</v>
       </c>
       <c r="E32">
-        <v>59.63999938964844</v>
+        <v>62.17</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2758,10 +2758,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>1.060697866821289</v>
+        <v>1.043184553527832</v>
       </c>
       <c r="J32">
-        <v>73.26999664306641</v>
+        <v>77.56999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2772,13 +2772,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.770119089285533</v>
+        <v>1.760950099229813</v>
       </c>
       <c r="D33">
-        <v>1.52630877494812</v>
+        <v>1.491770267486572</v>
       </c>
       <c r="E33">
-        <v>60.19999694824219</v>
+        <v>60.995</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>1.33677166595459</v>
+        <v>1.479885243225098</v>
       </c>
       <c r="J33">
-        <v>48.18999862670898</v>
+        <v>43.52</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2801,13 +2801,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.770573942661285</v>
+        <v>1.762098518610001</v>
       </c>
       <c r="D34">
-        <v>1.521796345710754</v>
+        <v>1.494308829307556</v>
       </c>
       <c r="E34">
-        <v>59.53999710083008</v>
+        <v>61.035</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2816,10 +2816,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>1.04932015838623</v>
+        <v>1.05480365447998</v>
       </c>
       <c r="J34">
-        <v>73.70999908447266</v>
+        <v>77.39</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2830,13 +2830,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.766449876626333</v>
+        <v>1.759780658483505</v>
       </c>
       <c r="D35">
-        <v>1.528892874717712</v>
+        <v>1.495530009269714</v>
       </c>
       <c r="E35">
-        <v>60.11000061035156</v>
+        <v>61.78999999999999</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>1.341899731445312</v>
+        <v>1.479613977050781</v>
       </c>
       <c r="J35">
-        <v>49.27000045776367</v>
+        <v>47.06</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2859,13 +2859,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.763476029237111</v>
+        <v>1.753970170815786</v>
       </c>
       <c r="D36">
-        <v>1.524710416793823</v>
+        <v>1.489985704421997</v>
       </c>
       <c r="E36">
-        <v>59.40000152587891</v>
+        <v>61.83</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2874,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>1.044878424072266</v>
+        <v>1.038595172119141</v>
       </c>
       <c r="J36">
-        <v>74.05999755859375</v>
+        <v>78.98999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2888,13 +2888,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.768119366963705</v>
+        <v>1.756679931084315</v>
       </c>
       <c r="D37">
-        <v>1.52931809425354</v>
+        <v>1.493746995925903</v>
       </c>
       <c r="E37">
-        <v>60.11000061035156</v>
+        <v>62.365</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>1.31753567199707</v>
+        <v>1.504525988769531</v>
       </c>
       <c r="J37">
-        <v>54.27000045776367</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2917,13 +2917,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.76349046309789</v>
+        <v>1.755198171138763</v>
       </c>
       <c r="D38">
-        <v>1.528567314147949</v>
+        <v>1.487324953079224</v>
       </c>
       <c r="E38">
-        <v>60.97499847412109</v>
+        <v>61.655</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2932,10 +2932,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>1.045694934082031</v>
+        <v>1.044547897338867</v>
       </c>
       <c r="J38">
-        <v>72.93000030517578</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2946,13 +2946,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.7650763408343</v>
+        <v>1.753893470366796</v>
       </c>
       <c r="D39">
-        <v>1.534663915634155</v>
+        <v>1.487832546234131</v>
       </c>
       <c r="E39">
-        <v>59.18499755859375</v>
+        <v>61.795</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1.33602170715332</v>
+        <v>1.502433642578125</v>
       </c>
       <c r="J39">
-        <v>49.36999893188477</v>
+        <v>42.06</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2975,13 +2975,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.757348006566366</v>
+        <v>1.753123085896174</v>
       </c>
       <c r="D40">
-        <v>1.524934649467468</v>
+        <v>1.488240599632263</v>
       </c>
       <c r="E40">
-        <v>60.60499572753906</v>
+        <v>60.79</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2990,10 +2990,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>1.048738536071777</v>
+        <v>1.041514025878906</v>
       </c>
       <c r="J40">
-        <v>70.54000091552734</v>
+        <v>78.73999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3004,13 +3004,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.756244333982468</v>
+        <v>1.755042738517125</v>
       </c>
       <c r="D41">
-        <v>1.518327832221985</v>
+        <v>1.488093852996826</v>
       </c>
       <c r="E41">
-        <v>60.94499969482422</v>
+        <v>61.095</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>1.318742967224121</v>
+        <v>1.498359552001953</v>
       </c>
       <c r="J41">
-        <v>50.7599983215332</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3033,13 +3033,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.753578319946925</v>
+        <v>1.755538516044617</v>
       </c>
       <c r="D42">
-        <v>1.519486904144287</v>
+        <v>1.489022493362427</v>
       </c>
       <c r="E42">
-        <v>60.55500030517578</v>
+        <v>60.94</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3048,10 +3048,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>1.024134266662598</v>
+        <v>1.033943661499023</v>
       </c>
       <c r="J42">
-        <v>73.8699951171875</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3062,13 +3062,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.750521078109741</v>
+        <v>1.753156478802363</v>
       </c>
       <c r="D43">
-        <v>1.517492175102234</v>
+        <v>1.486249685287476</v>
       </c>
       <c r="E43">
-        <v>61.30500030517578</v>
+        <v>61.44</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>1.353879823303223</v>
+        <v>1.535789358520508</v>
       </c>
       <c r="J43">
-        <v>48.04999923706055</v>
+        <v>40.27</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3091,13 +3091,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.752595496972402</v>
+        <v>1.755434880256653</v>
       </c>
       <c r="D44">
-        <v>1.517219185829163</v>
+        <v>1.484744191169739</v>
       </c>
       <c r="E44">
-        <v>61.21500015258789</v>
+        <v>60.825</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3106,10 +3106,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>1.024507386779785</v>
+        <v>1.043433387756348</v>
       </c>
       <c r="J44">
-        <v>74.29999542236328</v>
+        <v>77.65000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3120,13 +3120,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.751985425551732</v>
+        <v>1.750358028411865</v>
       </c>
       <c r="D45">
-        <v>1.518295764923096</v>
+        <v>1.485737562179565</v>
       </c>
       <c r="E45">
-        <v>61.26499938964844</v>
+        <v>61.94</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3135,10 +3135,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>1.35155284576416</v>
+        <v>1.487835412597656</v>
       </c>
       <c r="J45">
-        <v>48.39999771118164</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3149,13 +3149,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1.751364458799362</v>
+        <v>1.75694174806277</v>
       </c>
       <c r="D46">
-        <v>1.516498923301697</v>
+        <v>1.482541441917419</v>
       </c>
       <c r="E46">
-        <v>61.52999877929688</v>
+        <v>62.12</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3164,10 +3164,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>1.039177882385254</v>
+        <v>1.032325085449219</v>
       </c>
       <c r="J46">
-        <v>73.83999633789062</v>
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3178,13 +3178,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.748239198923111</v>
+        <v>1.753703353007634</v>
       </c>
       <c r="D47">
-        <v>1.514111280441284</v>
+        <v>1.48387622833252</v>
       </c>
       <c r="E47">
-        <v>61.6099967956543</v>
+        <v>62.43</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>1.356932513427734</v>
+        <v>1.500835360717773</v>
       </c>
       <c r="J47">
-        <v>47.25</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3207,13 +3207,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>1.750240374803543</v>
+        <v>1.752752408583959</v>
       </c>
       <c r="D48">
-        <v>1.517035007476807</v>
+        <v>1.48239803314209</v>
       </c>
       <c r="E48">
-        <v>61.43499755859375</v>
+        <v>61.44</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3222,10 +3222,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>1.027110137939453</v>
+        <v>1.024417861938477</v>
       </c>
       <c r="J48">
-        <v>74.06999969482422</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3236,13 +3236,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>1.751041720708211</v>
+        <v>1.756147448619207</v>
       </c>
       <c r="D49">
-        <v>1.518205642700195</v>
+        <v>1.486897230148315</v>
       </c>
       <c r="E49">
-        <v>61.23999786376953</v>
+        <v>62.205</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>1.367555574035644</v>
+        <v>1.531848864746094</v>
       </c>
       <c r="J49">
-        <v>48.77000045776367</v>
+        <v>41.06</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3265,13 +3265,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>1.748096806208293</v>
+        <v>1.75331182718277</v>
       </c>
       <c r="D50">
-        <v>1.517647981643677</v>
+        <v>1.488763213157654</v>
       </c>
       <c r="E50">
-        <v>61.68499755859375</v>
+        <v>62.07</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3280,10 +3280,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>1.029745797729492</v>
+        <v>1.016791250610352</v>
       </c>
       <c r="J50">
-        <v>74.04000091552734</v>
+        <v>79.95999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3294,13 +3294,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>1.750424002806346</v>
+        <v>1.750332032044729</v>
       </c>
       <c r="D51">
-        <v>1.519145607948303</v>
+        <v>1.487092733383179</v>
       </c>
       <c r="E51">
-        <v>60.61000061035156</v>
+        <v>61.735</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3309,10 +3309,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>1.359119131469727</v>
+        <v>1.539409631347656</v>
       </c>
       <c r="J51">
-        <v>49.36999893188477</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3323,13 +3323,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>1.747205730279287</v>
+        <v>1.751625312566757</v>
       </c>
       <c r="D52">
-        <v>1.517195224761963</v>
+        <v>1.481940269470215</v>
       </c>
       <c r="E52">
-        <v>61.02999877929688</v>
+        <v>61.6</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>1.023154370117187</v>
+        <v>1.025803852844238</v>
       </c>
       <c r="J52">
-        <v>74.50999450683594</v>
+        <v>78.91</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3352,13 +3352,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>1.748800176382065</v>
+        <v>1.748711402018865</v>
       </c>
       <c r="D53">
-        <v>1.514473080635071</v>
+        <v>1.483833789825439</v>
       </c>
       <c r="E53">
-        <v>61.66500091552734</v>
+        <v>61.95</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.38264560546875</v>
+        <v>1.539254949951172</v>
       </c>
       <c r="J53">
-        <v>48.15999984741211</v>
+        <v>39.88</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3381,13 +3381,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>1.752543733914693</v>
+        <v>1.751375057299932</v>
       </c>
       <c r="D54">
-        <v>1.51370906829834</v>
+        <v>1.480786681175232</v>
       </c>
       <c r="E54">
-        <v>61.36499786376953</v>
+        <v>62.28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3396,10 +3396,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>1.021514059448242</v>
+        <v>1.012878533935547</v>
       </c>
       <c r="J54">
-        <v>75.63999938964844</v>
+        <v>78.13</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3410,13 +3410,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1.750095109939575</v>
+        <v>1.751398559014002</v>
       </c>
       <c r="D55">
-        <v>1.515299320220947</v>
+        <v>1.483779907226562</v>
       </c>
       <c r="E55">
-        <v>61.2449951171875</v>
+        <v>61.655</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.392521015930176</v>
+        <v>1.502001620483398</v>
       </c>
       <c r="J55">
-        <v>47.72999954223633</v>
+        <v>41.93</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3439,13 +3439,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1.747009094953537</v>
+        <v>1.74895827293396</v>
       </c>
       <c r="D56">
-        <v>1.51215398311615</v>
+        <v>1.484485387802124</v>
       </c>
       <c r="E56">
-        <v>61.37999725341797</v>
+        <v>61.6</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -3454,10 +3454,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>1.019457064819336</v>
+        <v>1.012174166870117</v>
       </c>
       <c r="J56">
-        <v>74.12999725341797</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3468,13 +3468,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>1.74718378384908</v>
+        <v>1.749810875654221</v>
       </c>
       <c r="D57">
-        <v>1.513586163520813</v>
+        <v>1.481748342514038</v>
       </c>
       <c r="E57">
-        <v>61.47499847412109</v>
+        <v>62.13</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.410407220458984</v>
+        <v>1.528971020507812</v>
       </c>
       <c r="J57">
-        <v>46.02000045776367</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3497,13 +3497,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1.749202924569448</v>
+        <v>1.750451810359955</v>
       </c>
       <c r="D58">
-        <v>1.511569976806641</v>
+        <v>1.48350191116333</v>
       </c>
       <c r="E58">
-        <v>61.17499923706055</v>
+        <v>61.55</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3512,10 +3512,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>1.040097174072266</v>
+        <v>1.00753060760498</v>
       </c>
       <c r="J58">
-        <v>73.47000122070312</v>
+        <v>79.63</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3526,13 +3526,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>1.746072853803635</v>
+        <v>1.746833702325821</v>
       </c>
       <c r="D59">
-        <v>1.511944532394409</v>
+        <v>1.485101580619812</v>
       </c>
       <c r="E59">
-        <v>61.30999755859375</v>
+        <v>61.735</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3541,10 +3541,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.392674287414551</v>
+        <v>1.518345574951172</v>
       </c>
       <c r="J59">
-        <v>46.48999786376953</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3555,13 +3555,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>1.748872207800547</v>
+        <v>1.749183452129364</v>
       </c>
       <c r="D60">
-        <v>1.513009786605835</v>
+        <v>1.482028841972351</v>
       </c>
       <c r="E60">
-        <v>61.40499877929688</v>
+        <v>62.345</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -3570,10 +3570,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>1.017592166137695</v>
+        <v>1.008424285888672</v>
       </c>
       <c r="J60">
-        <v>75.45999908447266</v>
+        <v>79.97</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3584,13 +3584,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>1.751832043329875</v>
+        <v>1.747200651963552</v>
       </c>
       <c r="D61">
-        <v>1.514266133308411</v>
+        <v>1.483915090560913</v>
       </c>
       <c r="E61">
-        <v>61.5</v>
+        <v>62.27</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.402856588745117</v>
+        <v>1.495226187133789</v>
       </c>
       <c r="J61">
-        <v>44.78999710083008</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3613,13 +3613,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>1.747107532421748</v>
+        <v>1.750612346728643</v>
       </c>
       <c r="D62">
-        <v>1.513823986053467</v>
+        <v>1.483614683151245</v>
       </c>
       <c r="E62">
-        <v>61.17499923706055</v>
+        <v>62.15000000000001</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3628,10 +3628,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>1.020786067199707</v>
+        <v>1.008857388305664</v>
       </c>
       <c r="J62">
-        <v>74.48999786376953</v>
+        <v>79.06999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3642,13 +3642,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>1.747993871370951</v>
+        <v>1.74588837146759</v>
       </c>
       <c r="D63">
-        <v>1.512552976608276</v>
+        <v>1.482716798782349</v>
       </c>
       <c r="E63">
-        <v>61.18499755859375</v>
+        <v>62.235</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3657,10 +3657,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.387280613708496</v>
+        <v>1.519823529052734</v>
       </c>
       <c r="J63">
-        <v>46.34999847412109</v>
+        <v>42.71</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3671,13 +3671,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>1.749556990464529</v>
+        <v>1.749008377393087</v>
       </c>
       <c r="D64">
-        <v>1.512140274047852</v>
+        <v>1.483699321746826</v>
       </c>
       <c r="E64">
-        <v>61.22499847412109</v>
+        <v>62.095</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3686,10 +3686,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>1.022711071777344</v>
+        <v>1.016710952758789</v>
       </c>
       <c r="J64">
-        <v>74.04999542236328</v>
+        <v>79.28</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3700,13 +3700,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>1.74719202597936</v>
+        <v>1.749026227792104</v>
       </c>
       <c r="D65">
-        <v>1.512336134910583</v>
+        <v>1.481103420257568</v>
       </c>
       <c r="E65">
-        <v>61.30999755859375</v>
+        <v>62.27</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.39507735748291</v>
+        <v>1.504854873657226</v>
       </c>
       <c r="J65">
-        <v>43.55999755859375</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3729,13 +3729,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1.747549820741018</v>
+        <v>1.745773116747538</v>
       </c>
       <c r="D66">
-        <v>1.512237071990967</v>
+        <v>1.482417464256287</v>
       </c>
       <c r="E66">
-        <v>61.31499862670898</v>
+        <v>62.32</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3744,10 +3744,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>1.014373030090332</v>
+        <v>1.018694847106934</v>
       </c>
       <c r="J66">
-        <v>75.51999664306641</v>
+        <v>78.81</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3758,13 +3758,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>1.747034174601237</v>
+        <v>1.748847788572311</v>
       </c>
       <c r="D67">
-        <v>1.512568831443787</v>
+        <v>1.483081817626953</v>
       </c>
       <c r="E67">
-        <v>61.21499633789062</v>
+        <v>62.25</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3773,10 +3773,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.390533375549316</v>
+        <v>1.502261602783203</v>
       </c>
       <c r="J67">
-        <v>45.18999862670898</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3787,13 +3787,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>1.746056748231252</v>
+        <v>1.749623963038127</v>
       </c>
       <c r="D68">
-        <v>1.51243257522583</v>
+        <v>1.483703851699829</v>
       </c>
       <c r="E68">
-        <v>61.34999847412109</v>
+        <v>62.26</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3802,10 +3802,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>1.015540922546387</v>
+        <v>1.016290675354004</v>
       </c>
       <c r="J68">
-        <v>75.02999877929688</v>
+        <v>79.70999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3816,13 +3816,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>1.74991211771965</v>
+        <v>1.748093419472377</v>
       </c>
       <c r="D69">
-        <v>1.511897087097168</v>
+        <v>1.483646631240845</v>
       </c>
       <c r="E69">
-        <v>61.17499542236328</v>
+        <v>62.18000000000001</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.425836071777344</v>
+        <v>1.49352292175293</v>
       </c>
       <c r="J69">
-        <v>43.11999893188477</v>
+        <v>44.22</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3845,13 +3845,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>1.747631874084473</v>
+        <v>1.75091131567955</v>
       </c>
       <c r="D70">
-        <v>1.512147188186646</v>
+        <v>1.481019854545593</v>
       </c>
       <c r="E70">
-        <v>61.18000030517578</v>
+        <v>62.295</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -3860,10 +3860,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>1.012482563781738</v>
+        <v>1.010768128967285</v>
       </c>
       <c r="J70">
-        <v>75.68000030517578</v>
+        <v>79.44</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3874,13 +3874,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>1.746739386717479</v>
+        <v>1.750595405896505</v>
       </c>
       <c r="D71">
-        <v>1.512327432632446</v>
+        <v>1.481084942817688</v>
       </c>
       <c r="E71">
-        <v>61.21999740600586</v>
+        <v>62.29000000000001</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.429229762268066</v>
+        <v>1.480645098876953</v>
       </c>
       <c r="J71">
-        <v>45.07999801635742</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3903,13 +3903,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>1.750094242890676</v>
+        <v>1.74828446149826</v>
       </c>
       <c r="D72">
-        <v>1.512541890144348</v>
+        <v>1.481223583221436</v>
       </c>
       <c r="E72">
-        <v>61.18499755859375</v>
+        <v>62.29</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3918,10 +3918,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>1.027951741027832</v>
+        <v>1.015885534667969</v>
       </c>
       <c r="J72">
-        <v>75.13999938964844</v>
+        <v>79.34</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3932,13 +3932,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1.748517374197642</v>
+        <v>1.749563640753428</v>
       </c>
       <c r="D73">
-        <v>1.512452363967896</v>
+        <v>1.481269359588623</v>
       </c>
       <c r="E73">
-        <v>61.19999694824219</v>
+        <v>62.27</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3947,13 +3947,28 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.402596824645996</v>
+        <v>1.493796337890625</v>
       </c>
       <c r="J73">
-        <v>45.37999725341797</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="74" spans="1:10">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1.749060425758362</v>
+      </c>
+      <c r="D74">
+        <v>1.48144519329071</v>
+      </c>
+      <c r="E74">
+        <v>62.27499999999999</v>
+      </c>
       <c r="G74">
         <v>1</v>
       </c>
@@ -3961,10 +3976,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>1.003045767211914</v>
+        <v>1.014481344604492</v>
       </c>
       <c r="J74">
-        <v>76.56999969482422</v>
+        <v>79.23</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3975,10 +3990,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.415077154541016</v>
+        <v>1.494240963745117</v>
       </c>
       <c r="J75">
-        <v>44.61999893188477</v>
+        <v>43.82</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3989,10 +4004,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>1.025623449707031</v>
+        <v>1.010093304443359</v>
       </c>
       <c r="J76">
-        <v>73.75</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4003,10 +4018,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>1.391092851257324</v>
+        <v>1.507257043457031</v>
       </c>
       <c r="J77">
-        <v>45.28999710083008</v>
+        <v>41.92</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4017,10 +4032,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>1.01425193939209</v>
+        <v>1.013952891540527</v>
       </c>
       <c r="J78">
-        <v>75.91999816894531</v>
+        <v>79.66</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4031,10 +4046,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>1.369038003540039</v>
+        <v>1.500697201538086</v>
       </c>
       <c r="J79">
-        <v>46.31999969482422</v>
+        <v>42.84</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4045,10 +4060,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>1.007190217590332</v>
+        <v>1.007263232421875</v>
       </c>
       <c r="J80">
-        <v>75.56999969482422</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -4059,10 +4074,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>1.387085212707519</v>
+        <v>1.497240972900391</v>
       </c>
       <c r="J81">
-        <v>45.36000061035156</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4073,10 +4088,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>1.011890699768066</v>
+        <v>1.010828155517578</v>
       </c>
       <c r="J82">
-        <v>75.75</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4087,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>1.380370706176758</v>
+        <v>1.482460397338867</v>
       </c>
       <c r="J83">
-        <v>46.45999908447266</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4101,10 +4116,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>1.008126374816894</v>
+        <v>1.010096684265137</v>
       </c>
       <c r="J84">
-        <v>76.15000152587891</v>
+        <v>79.29000000000001</v>
       </c>
     </row>
     <row r="85" spans="7:10">
@@ -4115,10 +4130,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>1.376240058898926</v>
+        <v>1.505761947631836</v>
       </c>
       <c r="J85">
-        <v>46.84999847412109</v>
+        <v>42.12</v>
       </c>
     </row>
     <row r="86" spans="7:10">
@@ -4129,10 +4144,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>1.008734878540039</v>
+        <v>1.009329010009766</v>
       </c>
       <c r="J86">
-        <v>75.58000183105469</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="87" spans="7:10">
@@ -4143,10 +4158,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>1.365661270141602</v>
+        <v>1.486076669311523</v>
       </c>
       <c r="J87">
-        <v>47.23999786376953</v>
+        <v>44.09</v>
       </c>
     </row>
     <row r="88" spans="7:10">
@@ -4157,10 +4172,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>1.01244850769043</v>
+        <v>1.004044932556152</v>
       </c>
       <c r="J88">
-        <v>75.29000091552734</v>
+        <v>79.79000000000001</v>
       </c>
     </row>
     <row r="89" spans="7:10">
@@ -4171,10 +4186,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>1.367062269592285</v>
+        <v>1.486239556884766</v>
       </c>
       <c r="J89">
-        <v>47.29999923706055</v>
+        <v>44.37</v>
       </c>
     </row>
     <row r="90" spans="7:10">
@@ -4185,10 +4200,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>1.006333291625977</v>
+        <v>1.008532525634766</v>
       </c>
       <c r="J90">
-        <v>75.75999450683594</v>
+        <v>79.87</v>
       </c>
     </row>
     <row r="91" spans="7:10">
@@ -4199,10 +4214,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>1.369716989135742</v>
+        <v>1.474382150268555</v>
       </c>
       <c r="J91">
-        <v>47.44999694824219</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="92" spans="7:10">
@@ -4213,10 +4228,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>1.003765863037109</v>
+        <v>1.004295156860352</v>
       </c>
       <c r="J92">
-        <v>75.76999664306641</v>
+        <v>79.47</v>
       </c>
     </row>
     <row r="93" spans="7:10">
@@ -4227,10 +4242,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>1.382025569152832</v>
+        <v>1.500254263305664</v>
       </c>
       <c r="J93">
-        <v>47.05999755859375</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="94" spans="7:10">
@@ -4241,10 +4256,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>1.009080909729004</v>
+        <v>1.007820649719238</v>
       </c>
       <c r="J94">
-        <v>75.80999755859375</v>
+        <v>79.55</v>
       </c>
     </row>
     <row r="95" spans="7:10">
@@ -4255,10 +4270,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>1.37954010925293</v>
+        <v>1.47900043182373</v>
       </c>
       <c r="J95">
-        <v>46.63999938964844</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="96" spans="7:10">
@@ -4269,10 +4284,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>1.005235981750488</v>
+        <v>1.005659487915039</v>
       </c>
       <c r="J96">
-        <v>75.83999633789062</v>
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="97" spans="7:10">
@@ -4283,10 +4298,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>1.376835369873047</v>
+        <v>1.483773818969726</v>
       </c>
       <c r="J97">
-        <v>46.90999984741211</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="98" spans="7:10">
@@ -4297,10 +4312,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>1.000949713134766</v>
+        <v>1.002096923828125</v>
       </c>
       <c r="J98">
-        <v>76.45999908447266</v>
+        <v>79.44</v>
       </c>
     </row>
     <row r="99" spans="7:10">
@@ -4311,10 +4326,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>1.388265330505371</v>
+        <v>1.495892352294922</v>
       </c>
       <c r="J99">
-        <v>45.36000061035156</v>
+        <v>43.68</v>
       </c>
     </row>
     <row r="100" spans="7:10">
@@ -4325,10 +4340,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>1.006454341125488</v>
+        <v>1.009820347595215</v>
       </c>
       <c r="J100">
-        <v>75.86000061035156</v>
+        <v>79.79000000000001</v>
       </c>
     </row>
     <row r="101" spans="7:10">
@@ -4339,10 +4354,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>1.375609408569336</v>
+        <v>1.496691525268555</v>
       </c>
       <c r="J101">
-        <v>46.23999786376953</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="102" spans="7:10">
@@ -4353,10 +4368,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>1.004499253845215</v>
+        <v>1.006696611022949</v>
       </c>
       <c r="J102">
-        <v>75.81999969482422</v>
+        <v>79.64</v>
       </c>
     </row>
     <row r="103" spans="7:10">
@@ -4367,10 +4382,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>1.374260784912109</v>
+        <v>1.4925349609375</v>
       </c>
       <c r="J103">
-        <v>47.29999923706055</v>
+        <v>43.97</v>
       </c>
     </row>
     <row r="104" spans="7:10">
@@ -4381,10 +4396,10 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>1.006427365112305</v>
+        <v>1.002267987060547</v>
       </c>
       <c r="J104">
-        <v>76.02999877929688</v>
+        <v>79.93000000000001</v>
       </c>
     </row>
     <row r="105" spans="7:10">
@@ -4395,10 +4410,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>1.377627345275879</v>
+        <v>1.480963426208496</v>
       </c>
       <c r="J105">
-        <v>46.70999908447266</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="106" spans="7:10">
@@ -4409,10 +4424,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>1.007554672241211</v>
+        <v>1.004223420715332</v>
       </c>
       <c r="J106">
-        <v>76.01999664306641</v>
+        <v>80.16</v>
       </c>
     </row>
     <row r="107" spans="7:10">
@@ -4423,10 +4438,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>1.379794892883301</v>
+        <v>1.496864196777344</v>
       </c>
       <c r="J107">
-        <v>46.43999862670898</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="108" spans="7:10">
@@ -4437,10 +4452,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>1.007891656494141</v>
+        <v>1.008719746398926</v>
       </c>
       <c r="J108">
-        <v>76.04999542236328</v>
+        <v>79.98999999999999</v>
       </c>
     </row>
     <row r="109" spans="7:10">
@@ -4451,10 +4466,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>1.373791970825195</v>
+        <v>1.501999279785156</v>
       </c>
       <c r="J109">
-        <v>46.61999893188477</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="110" spans="7:10">
@@ -4465,10 +4480,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>1.002944502258301</v>
+        <v>1.006528923034668</v>
       </c>
       <c r="J110">
-        <v>76.13999938964844</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="111" spans="7:10">
@@ -4479,10 +4494,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>1.371057420349121</v>
+        <v>1.492560061645508</v>
       </c>
       <c r="J111">
-        <v>46.91999816894531</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="112" spans="7:10">
@@ -4493,10 +4508,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>1.002587292480469</v>
+        <v>1.004409750366211</v>
       </c>
       <c r="J112">
-        <v>76.02999877929688</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="113" spans="7:10">
@@ -4507,10 +4522,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>1.372587507629395</v>
+        <v>1.507357427978516</v>
       </c>
       <c r="J113">
-        <v>46.55999755859375</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -4521,10 +4536,10 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>1.005941539001465</v>
+        <v>1.000144822692871</v>
       </c>
       <c r="J114">
-        <v>75.79000091552734</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="115" spans="7:10">
@@ -4535,10 +4550,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>1.372297793579102</v>
+        <v>1.499929220581055</v>
       </c>
       <c r="J115">
-        <v>46.55999755859375</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -4549,10 +4564,10 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>1.005578875732422</v>
+        <v>1.004623538208008</v>
       </c>
       <c r="J116">
-        <v>76.05999755859375</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="117" spans="7:10">
@@ -4563,10 +4578,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>1.371022192382813</v>
+        <v>1.480938479614258</v>
       </c>
       <c r="J117">
-        <v>46.84999847412109</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -4577,10 +4592,10 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>1.005556680297852</v>
+        <v>1.005221266174317</v>
       </c>
       <c r="J118">
-        <v>75.95999908447266</v>
+        <v>79.87</v>
       </c>
     </row>
     <row r="119" spans="7:10">
@@ -4591,10 +4606,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>1.374402568054199</v>
+        <v>1.482826095581055</v>
       </c>
       <c r="J119">
-        <v>46.77999877929688</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -4605,10 +4620,10 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>1.005148321533203</v>
+        <v>1.003483892822266</v>
       </c>
       <c r="J120">
-        <v>76.22000122070312</v>
+        <v>79.97</v>
       </c>
     </row>
     <row r="121" spans="7:10">
@@ -4619,10 +4634,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>1.376734176635742</v>
+        <v>1.48565224609375</v>
       </c>
       <c r="J121">
-        <v>46.30999755859375</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -4633,10 +4648,10 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>1.00429256439209</v>
+        <v>1.002500706481934</v>
       </c>
       <c r="J122">
-        <v>76.04000091552734</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="123" spans="7:10">
@@ -4647,10 +4662,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>1.378286949157715</v>
+        <v>1.483735620117187</v>
       </c>
       <c r="J123">
-        <v>46.18999862670898</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -4661,10 +4676,10 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>1.004585350036621</v>
+        <v>1.001472378540039</v>
       </c>
       <c r="J124">
-        <v>76.18000030517578</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="7:10">
@@ -4675,10 +4690,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>1.373359078979492</v>
+        <v>1.483736904907227</v>
       </c>
       <c r="J125">
-        <v>46.55999755859375</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -4689,10 +4704,10 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>1.005713064575195</v>
+        <v>1.00203814239502</v>
       </c>
       <c r="J126">
-        <v>75.88999938964844</v>
+        <v>79.83</v>
       </c>
     </row>
     <row r="127" spans="7:10">
@@ -4703,10 +4718,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>1.372556246948242</v>
+        <v>1.479961256408691</v>
       </c>
       <c r="J127">
-        <v>46.73999786376953</v>
+        <v>44.51</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -4717,10 +4732,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>1.005185987854004</v>
+        <v>1.004003329467773</v>
       </c>
       <c r="J128">
-        <v>75.87999725341797</v>
+        <v>80.03</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -4731,10 +4746,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>1.372450149536133</v>
+        <v>1.477931025695801</v>
       </c>
       <c r="J129">
-        <v>46.68000030517578</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -4745,10 +4760,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>1.004105052185059</v>
+        <v>1.002825871276855</v>
       </c>
       <c r="J130">
-        <v>75.94999694824219</v>
+        <v>79.97</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -4759,10 +4774,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>1.374765837097168</v>
+        <v>1.479654965209961</v>
       </c>
       <c r="J131">
-        <v>46.53999710083008</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -4773,10 +4788,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>1.004487110900879</v>
+        <v>1.003706616210938</v>
       </c>
       <c r="J132">
-        <v>75.88999938964844</v>
+        <v>79.93000000000001</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -4787,10 +4802,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>1.374636114501953</v>
+        <v>1.478647389221191</v>
       </c>
       <c r="J133">
-        <v>46.65999984741211</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -4801,10 +4816,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>1.003982757568359</v>
+        <v>1.004108332824707</v>
       </c>
       <c r="J134">
-        <v>76.04000091552734</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -4815,10 +4830,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>1.372447192382813</v>
+        <v>1.48011848449707</v>
       </c>
       <c r="J135">
-        <v>46.53999710083008</v>
+        <v>44.49</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -4829,10 +4844,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>1.005777383422852</v>
+        <v>1.004019079589844</v>
       </c>
       <c r="J136">
-        <v>75.80999755859375</v>
+        <v>79.87</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -4843,10 +4858,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>1.37247265625</v>
+        <v>1.480823094177246</v>
       </c>
       <c r="J137">
-        <v>46.53999710083008</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -4857,10 +4872,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>1.005642030334473</v>
+        <v>1.004178338623047</v>
       </c>
       <c r="J138">
-        <v>75.81999969482422</v>
+        <v>80.19</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -4871,10 +4886,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>1.372446893310547</v>
+        <v>1.480373292541504</v>
       </c>
       <c r="J139">
-        <v>46.59999847412109</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -4885,10 +4900,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>1.005583480834961</v>
+        <v>1.003977056884766</v>
       </c>
       <c r="J140">
-        <v>75.83999633789062</v>
+        <v>80.15000000000001</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -4899,10 +4914,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>1.372591033935547</v>
+        <v>1.480109092712402</v>
       </c>
       <c r="J141">
-        <v>46.53999710083008</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -4913,10 +4928,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>1.005549865722656</v>
+        <v>1.003912672424316</v>
       </c>
       <c r="J142">
-        <v>75.83000183105469</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -4927,10 +4942,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>1.372709231567383</v>
+        <v>1.48035484161377</v>
       </c>
       <c r="J143">
-        <v>46.52000045776367</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -4941,10 +4956,38 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>1.005741200256348</v>
+        <v>1.004063206481934</v>
       </c>
       <c r="J144">
-        <v>75.87999725341797</v>
+        <v>80.09999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="7:10">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>72</v>
+      </c>
+      <c r="I145">
+        <v>1.480050315856934</v>
+      </c>
+      <c r="J145">
+        <v>44.48</v>
+      </c>
+    </row>
+    <row r="146" spans="7:10">
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>1.004040161132812</v>
+      </c>
+      <c r="J146">
+        <v>80.06999999999999</v>
       </c>
     </row>
   </sheetData>
